--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1214449836064212</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.667980865616133</v>
+        <v>-1.667828972770927</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.210884606703024</v>
+        <v>-0.2096049291574065</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3188906507684346</v>
+        <v>-0.318918983112618</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1181188688151281</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.813024366615309</v>
+        <v>-1.812680443437305</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1957551349090818</v>
+        <v>-0.194730448461115</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3207810477331167</v>
+        <v>-0.3206016095532884</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1192407351615021</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.994942413569197</v>
+        <v>-1.99470394967232</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2713049046932722</v>
+        <v>-0.2705903000122017</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3532105636892748</v>
+        <v>-0.3527005814939733</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.12349765252913</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.022038365732827</v>
+        <v>-2.022963888976153</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2435848539480458</v>
+        <v>-0.2437406818410545</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3566010008765564</v>
+        <v>-0.3561712936564413</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1284418341028697</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.959697764414593</v>
+        <v>-1.959685959271183</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1953411678801797</v>
+        <v>-0.1948012793215735</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3695945287228936</v>
+        <v>-0.3693584258546985</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1355052814382695</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.711429302430956</v>
+        <v>-1.712684582680194</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1717198629268203</v>
+        <v>-0.1721259598601158</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3879932382317773</v>
+        <v>-0.3875714011072688</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1494896961597092</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.491486101544687</v>
+        <v>-1.494131240678032</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05432951686021496</v>
+        <v>-0.0551039342678949</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3714550193242711</v>
+        <v>-0.3708301337331147</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1732803291100255</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.212674585521771</v>
+        <v>-1.2149600612859</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.004867539992462151</v>
+        <v>-0.0058953744786715</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.321536576911341</v>
+        <v>-0.3203466184556377</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2027228834156588</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.035461281721451</v>
+        <v>-1.037899437340346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.145684240921706</v>
+        <v>0.1445902976324021</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3167972053371046</v>
+        <v>-0.3159960296043626</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2259827125666569</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8112784603319583</v>
+        <v>-0.8114689166456357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1748287789717096</v>
+        <v>0.1747343378244315</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3042743092080364</v>
+        <v>-0.3036620157698504</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2293798665899408</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5906261638315428</v>
+        <v>-0.5886728061020086</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1716004657539218</v>
+        <v>0.170663924376748</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2575605697260746</v>
+        <v>-0.2562808921804571</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1997810017287349</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3910452613079794</v>
+        <v>-0.3883725768400108</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006967281500277269</v>
+        <v>-0.008413805072752601</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2069228005747101</v>
+        <v>-0.2053267451857113</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1280858311710443</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08595943110275228</v>
+        <v>-0.0807431317347618</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1227883305029458</v>
+        <v>-0.1245134554598913</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09648647098601129</v>
+        <v>-0.09440404368853048</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.01456411397329481</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3051748764257408</v>
+        <v>0.3094499123591935</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4033682570086425</v>
+        <v>-0.4046636747454729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03632296639285554</v>
+        <v>0.03884769306342185</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1350453803856442</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6581518124156627</v>
+        <v>0.6618948298861157</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6059508139965262</v>
+        <v>-0.6081103682309508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07458107515519007</v>
+        <v>0.0767044269498247</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3070940971690715</v>
       </c>
       <c r="E17" t="n">
-        <v>1.150807205229808</v>
+        <v>1.155108999488322</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.711838228324666</v>
+        <v>-0.7145345230794542</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1362479962895084</v>
+        <v>0.1385366200918796</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4873628730336728</v>
       </c>
       <c r="E18" t="n">
-        <v>1.502290397073615</v>
+        <v>1.506806257932627</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9046673758274101</v>
+        <v>-0.908770843676641</v>
       </c>
       <c r="G18" t="n">
-        <v>0.185494332537643</v>
+        <v>0.1885101531740551</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6712001276361719</v>
       </c>
       <c r="E19" t="n">
-        <v>1.867752452733694</v>
+        <v>1.873579471520749</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.006352159101677</v>
+        <v>-1.011472443303268</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2488470281508744</v>
+        <v>0.2525522691624162</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8565056825450668</v>
       </c>
       <c r="E20" t="n">
-        <v>2.179132785405002</v>
+        <v>2.184388435251026</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.219004503418082</v>
+        <v>-1.223959515611936</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3199029733437513</v>
+        <v>0.3228526851770688</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.039638558317936</v>
       </c>
       <c r="E21" t="n">
-        <v>2.439873774905825</v>
+        <v>2.44586921373886</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.245300853868092</v>
+        <v>-1.250082723958603</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4467610444249803</v>
+        <v>0.450360826155395</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.213597878807702</v>
       </c>
       <c r="E22" t="n">
-        <v>2.661547609815965</v>
+        <v>2.666940199325541</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.351880049600043</v>
+        <v>-1.357294675377318</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4436177282397428</v>
+        <v>0.4476393470946661</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.37409747139946</v>
       </c>
       <c r="E23" t="n">
-        <v>2.734882734696485</v>
+        <v>2.738983054507474</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.4595791599368</v>
+        <v>-1.465838246972653</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5406292487428681</v>
+        <v>0.5457054604090629</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.520922385630087</v>
       </c>
       <c r="E24" t="n">
-        <v>2.862908727965719</v>
+        <v>2.868427239005</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.606025898982616</v>
+        <v>-1.613752758849081</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5816025404894463</v>
+        <v>0.586971519712203</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.653026881746963</v>
       </c>
       <c r="E25" t="n">
-        <v>2.871660274280151</v>
+        <v>2.879070756303235</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.546028225126437</v>
+        <v>-1.553378107413351</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6353584415201075</v>
+        <v>0.6404047468229974</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.769257484317811</v>
       </c>
       <c r="E26" t="n">
-        <v>2.858816278250337</v>
+        <v>2.864907732249771</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.456179278634791</v>
+        <v>-1.462908210378351</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5729847858003251</v>
+        <v>0.5780342391414577</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.866391072537936</v>
       </c>
       <c r="E27" t="n">
-        <v>2.936147837679841</v>
+        <v>2.942790198371729</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.501331591148422</v>
+        <v>-1.508307643894027</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6043046182759662</v>
+        <v>0.6094311985540425</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.943150374061464</v>
       </c>
       <c r="E28" t="n">
-        <v>2.877101658382488</v>
+        <v>2.884227242944616</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.4546170646569</v>
+        <v>-1.462322675265227</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6228748958690716</v>
+        <v>0.6268823485519032</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.000966788398873</v>
       </c>
       <c r="E29" t="n">
-        <v>2.740632626546597</v>
+        <v>2.74686889030519</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.616962183837414</v>
+        <v>-1.624070454189207</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5923578131452939</v>
+        <v>0.5972199582109917</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.039653897948179</v>
       </c>
       <c r="E30" t="n">
-        <v>2.699915899916791</v>
+        <v>2.708333754177507</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.603224144946701</v>
+        <v>-1.610192327596699</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5426046427401005</v>
+        <v>0.5470921712549287</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.060538851715777</v>
       </c>
       <c r="E31" t="n">
-        <v>2.588346276560755</v>
+        <v>2.596814499433353</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.647214044339252</v>
+        <v>-1.653292119176155</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5393763295223127</v>
+        <v>0.5433837822051443</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.063063300310061</v>
       </c>
       <c r="E32" t="n">
-        <v>2.550950730276893</v>
+        <v>2.557561610586356</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.69689953192223</v>
+        <v>-1.702069397726142</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5305366381370881</v>
+        <v>0.5351123117227092</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.046605000845642</v>
       </c>
       <c r="E33" t="n">
-        <v>2.375502688921113</v>
+        <v>2.382551146546297</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.69220423288339</v>
+        <v>-1.696439131329249</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5276845154892913</v>
+        <v>0.5316699319044246</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.012042437388394</v>
       </c>
       <c r="E34" t="n">
-        <v>2.201402007933165</v>
+        <v>2.207654011882971</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.684268815483352</v>
+        <v>-1.687674992861847</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4697196873282721</v>
+        <v>0.4736610312080091</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.959373138811378</v>
       </c>
       <c r="E35" t="n">
-        <v>2.050483480563734</v>
+        <v>2.055861903901218</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.728615230206878</v>
+        <v>-1.732380283945029</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4064315264990141</v>
+        <v>0.4105381423864876</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.890648672152889</v>
       </c>
       <c r="E36" t="n">
-        <v>1.901620622166721</v>
+        <v>1.906421380486688</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.591631494118322</v>
+        <v>-1.59502980140121</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4110292363523334</v>
+        <v>0.4142843078951832</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.806922930950079</v>
       </c>
       <c r="E37" t="n">
-        <v>1.701070123864436</v>
+        <v>1.704336213541135</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.576812104091276</v>
+        <v>-1.580381192448825</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3255725902186765</v>
+        <v>0.3275574283306366</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.710888362376995</v>
       </c>
       <c r="E38" t="n">
-        <v>1.584111059037067</v>
+        <v>1.587751765264636</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.472622269385458</v>
+        <v>-1.475603461601202</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2794711441749006</v>
+        <v>0.2811726588450266</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.607001362713933</v>
       </c>
       <c r="E39" t="n">
-        <v>1.411653654011757</v>
+        <v>1.414011534655466</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.433687332400965</v>
+        <v>-1.436398580337405</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2674928586618023</v>
+        <v>0.2692227056761118</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.497182597284449</v>
       </c>
       <c r="E40" t="n">
-        <v>1.181140127716393</v>
+        <v>1.182581929231505</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.513024192191005</v>
+        <v>-1.515251429247645</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2910401847164606</v>
+        <v>0.2925921675700631</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.384006858621752</v>
       </c>
       <c r="E41" t="n">
-        <v>1.102107053616764</v>
+        <v>1.103964396179899</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.452494499871826</v>
+        <v>-1.454868120706748</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1906303569304472</v>
+        <v>0.1923665000212418</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.267837980310518</v>
       </c>
       <c r="E42" t="n">
-        <v>0.967903035296425</v>
+        <v>0.9693228005438382</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.330622921366878</v>
+        <v>-1.33148469683579</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1520070757319709</v>
+        <v>0.1530254661034524</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.14846083832095</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8836756980965039</v>
+        <v>0.8846846443532577</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.267362305872242</v>
+        <v>-1.268994563701031</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1112793309683156</v>
+        <v>0.1122693889956137</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.027127630634219</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7121139099512142</v>
+        <v>0.7114921723983004</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.193433775782992</v>
+        <v>-1.193931952834883</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09608847242864266</v>
+        <v>0.09689751825699122</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9051428460716754</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5551952216913847</v>
+        <v>0.5553856780050621</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.166919423684682</v>
+        <v>-1.168913705911369</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08250153937357513</v>
+        <v>0.08349946749647977</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7864664321150353</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3827692970485008</v>
+        <v>0.3826685598247376</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.021386402738781</v>
+        <v>-1.022787279756738</v>
       </c>
       <c r="G46" t="n">
-        <v>0.007715168863215546</v>
+        <v>0.008483290194410282</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.673373252578982</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3093538971927942</v>
+        <v>0.3087227155251526</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.047227074653174</v>
+        <v>-1.050216923974085</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.03096635104274886</v>
+        <v>-0.03004397583766665</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5673844405436782</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1749295161954728</v>
+        <v>0.1745218452430559</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9155942165674794</v>
+        <v>-0.9170997658570036</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01720627588433824</v>
+        <v>-0.0141243464448315</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4709071499335358</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1746084162947275</v>
+        <v>0.1730863398044297</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8875979254664648</v>
+        <v>-0.8890538931536679</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1005867907969996</v>
+        <v>-0.09923628239092359</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3831211579053855</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0052091021417844</v>
+        <v>-0.007419024988090567</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8277222380921866</v>
+        <v>-0.8295599054163052</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1066325982419155</v>
+        <v>-0.1059085494461172</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3042915432544199</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.009221276881979854</v>
+        <v>-0.01019716873718628</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9275323645929845</v>
+        <v>-0.9302388904720611</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1504784748848675</v>
+        <v>-0.1497859064714952</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2326370588574631</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0583007671032566</v>
+        <v>-0.0587556586293125</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8890239867903632</v>
+        <v>-0.891637645541283</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1584981023078945</v>
+        <v>-0.1577236849002145</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1654481565031447</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1226387986864222</v>
+        <v>-0.1230732279639012</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8436961711447066</v>
+        <v>-0.8457809594708694</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1944187926750975</v>
+        <v>-0.1938647379443996</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1017137414984948</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2261604622752471</v>
+        <v>-0.227065523269995</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8501701117906164</v>
+        <v>-0.8523422581780113</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2466258588903987</v>
+        <v>-0.2458199611002927</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04000415788758602</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3081637104567704</v>
+        <v>-0.3095236629775742</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8304940857647971</v>
+        <v>-0.8320980112494025</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2343721200310728</v>
+        <v>-0.232854765598139</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01871854454347784</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3390554097314177</v>
+        <v>-0.3399289903437396</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8160146838679521</v>
+        <v>-0.818186830255347</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2375390465031298</v>
+        <v>-0.2359492871906161</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.07454683090674198</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3942090397417938</v>
+        <v>-0.395901110297192</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8164475391263097</v>
+        <v>-0.8187078305844976</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3543060809977001</v>
+        <v>-0.3527068775704585</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1280806660216737</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.412196930260018</v>
+        <v>-0.4140149223451203</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.717496827065742</v>
+        <v>-0.7200766444055539</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3635361291250073</v>
+        <v>-0.3623445966501826</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1793852604789185</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5264124797589599</v>
+        <v>-0.5279723327081688</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7148808072861403</v>
+        <v>-0.717595990270384</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4175060967561652</v>
+        <v>-0.4166860327939676</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2295756239573457</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.542572934077354</v>
+        <v>-0.5439297385599152</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7022776361818857</v>
+        <v>-0.7045662599842569</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4191887231968357</v>
+        <v>-0.4181026500031382</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2784854392433029</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5527867441554741</v>
+        <v>-0.5540192011274526</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7145911877678209</v>
+        <v>-0.7170702678838695</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4594442622241008</v>
+        <v>-0.4581016239136313</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.32479053098975</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6638432372779655</v>
+        <v>-0.6653070750607751</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7544689622059739</v>
+        <v>-0.7559595583138456</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4936886222271186</v>
+        <v>-0.4920563643983297</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3680677316697428</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7438160007930108</v>
+        <v>-0.7446880073862114</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7690475273074608</v>
+        <v>-0.7706577488685514</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5550785159960879</v>
+        <v>-0.5539593884008431</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4075824868473641</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.772691381573272</v>
+        <v>-0.7738372674935788</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8175336123200072</v>
+        <v>-0.820023710569905</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5471438856056112</v>
+        <v>-0.5454061684956952</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4430181057534577</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8295724975692755</v>
+        <v>-0.8310056419792199</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8313416950616176</v>
+        <v>-0.833372966737656</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.584780256815032</v>
+        <v>-0.5829449505195954</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4749529100938576</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8584526004069006</v>
+        <v>-0.8605051213410767</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.938323839688622</v>
+        <v>-0.9398529992649657</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6731000437303348</v>
+        <v>-0.6713906589646023</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5033913945726459</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9879652547362031</v>
+        <v>-0.9893779368975705</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9013170761277216</v>
+        <v>-0.9035742195476667</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6712442751863213</v>
+        <v>-0.6693491561642753</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5284906031324517</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.036275836616724</v>
+        <v>-1.03721473902258</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9868957087432794</v>
+        <v>-0.9891182237425559</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7339642151127899</v>
+        <v>-0.7324295464695216</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5499367344976628</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.068446426427429</v>
+        <v>-1.070358072650248</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9515613404987608</v>
+        <v>-0.9532738733027359</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.76323782273074</v>
+        <v>-0.7613458517469366</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5674457750126688</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.223436154254104</v>
+        <v>-1.225516220522903</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.947599534370447</v>
+        <v>-0.9507585907468975</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7859572147275942</v>
+        <v>-0.7843344010135331</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5813344201553882</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.227955163151358</v>
+        <v>-1.230262675183185</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9900736533491854</v>
+        <v>-0.9930595676222929</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8153394296649141</v>
+        <v>-0.8147082479972725</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5912564705655492</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.205623766867905</v>
+        <v>-1.208009979855797</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.080926824040222</v>
+        <v>-1.084199209793406</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.77806193481515</v>
+        <v>-0.7768483660726271</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5965540378620715</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.162361851318956</v>
+        <v>-1.16586483087341</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.150976971014588</v>
+        <v>-1.154346945953292</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7668344564229121</v>
+        <v>-0.7665479849428354</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5958464366353304</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.167151591505073</v>
+        <v>-1.170339767235268</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.142340328096011</v>
+        <v>-1.146539811111641</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7747454765265693</v>
+        <v>-0.7754679513032464</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5868963730949908</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.088905526966095</v>
+        <v>-1.092930293859261</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.172769265748996</v>
+        <v>-1.176025911310967</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7906367735752211</v>
+        <v>-0.7914820218433596</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5685736312128284</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.000376395507659</v>
+        <v>-1.004497177567224</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.256825821874256</v>
+        <v>-1.260270562721222</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7319557667140102</v>
+        <v>-0.732091132358442</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5398956286714681</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.890174594768034</v>
+        <v>-0.8936059564524695</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.203625549593414</v>
+        <v>-1.206773587836015</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7450815121665366</v>
+        <v>-0.7464005401901865</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5012674209065678</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8005027254275339</v>
+        <v>-0.8047793353801078</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.205916534424467</v>
+        <v>-1.208818238674584</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7045945923284404</v>
+        <v>-0.7057766806885372</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4535153116975628</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6799486009271142</v>
+        <v>-0.6837341169138423</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.272026911538217</v>
+        <v>-1.276080797785127</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6821963002323315</v>
+        <v>-0.6832855214642716</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3976661080715409</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5051002608565486</v>
+        <v>-0.5088936469388832</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.186581283538409</v>
+        <v>-1.189541226496015</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7003463147200497</v>
+        <v>-0.7011034179173954</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3356633997649451</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2797447952216864</v>
+        <v>-0.2826346943283946</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.201900424636468</v>
+        <v>-1.204692734557655</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6296933184222258</v>
+        <v>-0.6311209537652455</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2692574819821417</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1101930294942977</v>
+        <v>-0.1131852398438903</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.209257390009427</v>
+        <v>-1.211749849288007</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4944095229846743</v>
+        <v>-0.4948801547019432</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2005101740376462</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07999097887510052</v>
+        <v>0.07560890964139941</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.124924593528379</v>
+        <v>-1.12694642108969</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4516827739369671</v>
+        <v>-0.4526649618686587</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1312405594539053</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2281974712985307</v>
+        <v>0.2239255834033206</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.097723969093182</v>
+        <v>-1.098837587621502</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3596278396468177</v>
+        <v>-0.360498272220897</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06308238067015048</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4413873431448597</v>
+        <v>0.4382802293994122</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.077962159025252</v>
+        <v>-1.079019112865205</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2816084338613065</v>
+        <v>-0.2818492587868655</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.000862538597831342</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5991622978066767</v>
+        <v>0.5960756463098061</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9689070312154944</v>
+        <v>-0.9693383124547308</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2243676544960857</v>
+        <v>-0.2254096551543867</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05780269921123064</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8289171468855743</v>
+        <v>0.826167335480662</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9249753705304316</v>
+        <v>-0.9253578571769077</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1658157172028214</v>
+        <v>-0.1673692740755452</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.104894236752461</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9379683396475286</v>
+        <v>0.9353287095811073</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7492809951821668</v>
+        <v>-0.7498224577598943</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1019561874325312</v>
+        <v>-0.1029667077084062</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.140717908514871</v>
       </c>
       <c r="E89" t="n">
-        <v>1.185367943076207</v>
+        <v>1.182183702393816</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5895542568099369</v>
+        <v>-0.5911282759312376</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02494910422233678</v>
+        <v>0.02380636634027248</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1638429846642868</v>
       </c>
       <c r="E90" t="n">
-        <v>1.358369958717487</v>
+        <v>1.355692552192154</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5186242331467641</v>
+        <v>-0.5199747415528401</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04642502111336336</v>
+        <v>0.04479748534193845</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1738510834824296</v>
       </c>
       <c r="E91" t="n">
-        <v>1.441575757507684</v>
+        <v>1.439329632221588</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2980836920039608</v>
+        <v>-0.298943106444191</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07766143057557551</v>
+        <v>0.07655174709505852</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1700501524020337</v>
       </c>
       <c r="E92" t="n">
-        <v>1.584858718119685</v>
+        <v>1.582998227518308</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2094837296850664</v>
+        <v>-0.2111647821066155</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09066597655576179</v>
+        <v>0.08897862805772745</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1508303635902185</v>
       </c>
       <c r="E93" t="n">
-        <v>1.598799805477045</v>
+        <v>1.596446646890701</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.00486439195421955</v>
+        <v>-0.004957259082376291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1187527737562513</v>
+        <v>0.1175045765930598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.117207175340155</v>
       </c>
       <c r="E94" t="n">
-        <v>1.547859824654391</v>
+        <v>1.544985665738896</v>
       </c>
       <c r="F94" t="n">
-        <v>0.153771551166949</v>
+        <v>0.1528413058662603</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1331408825440608</v>
+        <v>0.1323837793467152</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07393990615376857</v>
       </c>
       <c r="E95" t="n">
-        <v>1.541708557928348</v>
+        <v>1.538872175471764</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2037025857328494</v>
+        <v>0.2038017489374913</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1454166576710849</v>
+        <v>0.1442943820375975</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.02764257829169198</v>
       </c>
       <c r="E96" t="n">
-        <v>1.513250292215232</v>
+        <v>1.511644792711505</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2938765671730445</v>
+        <v>0.2935775035399973</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05265341477635018</v>
+        <v>0.05120374316563225</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01547054014737595</v>
       </c>
       <c r="E97" t="n">
-        <v>1.35369039986986</v>
+        <v>1.352887650117996</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3085180930393835</v>
+        <v>0.3086503106455727</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03154896639795056</v>
+        <v>0.0307226063592677</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05293421161474048</v>
       </c>
       <c r="E98" t="n">
-        <v>1.292640494231091</v>
+        <v>1.292335134521559</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2607324465358159</v>
+        <v>0.2625976591945572</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02910451470257059</v>
+        <v>0.02828287672125163</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08510832178542882</v>
       </c>
       <c r="E99" t="n">
-        <v>1.188789860645914</v>
+        <v>1.189554833938867</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2315532800651438</v>
+        <v>0.2329935075611339</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06418625287812033</v>
+        <v>0.06296009198262709</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1162261055451632</v>
       </c>
       <c r="E100" t="n">
-        <v>1.072427349065519</v>
+        <v>1.072993995949187</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2294047439645683</v>
+        <v>0.231491893319413</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02633581506820269</v>
+        <v>0.02530011048638683</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1441159505296442</v>
       </c>
       <c r="E101" t="n">
-        <v>0.911252513101692</v>
+        <v>0.9119151751517596</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1947668791812254</v>
+        <v>0.1965077443293839</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01370093530120161</v>
+        <v>-0.01462488452540511</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1722664735397152</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7402542238018278</v>
+        <v>0.7419179620130427</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1554494555502555</v>
+        <v>0.1568157041475445</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03646125179520956</v>
+        <v>-0.03773148522609921</v>
       </c>
     </row>
   </sheetData>
